--- a/SEGUIMIENTO MOVILES.xlsx
+++ b/SEGUIMIENTO MOVILES.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Documentos\PASCUAL\MOVILES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Documentos\PASCUAL\MOVILES_PASCUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A97214-22B2-415F-A36B-9F0B8FE4F84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82514543-E9F6-4511-8BC4-AABECF5A5DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>ApellidoDeEstudiante</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>OROS</t>
+  </si>
+  <si>
+    <t>4.0</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:A16"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,8 +572,14 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
       <c r="G4">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -597,6 +606,12 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
       <c r="G6">
         <v>10</v>
       </c>
@@ -677,6 +692,9 @@
       </c>
       <c r="C12" t="s">
         <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/SEGUIMIENTO MOVILES.xlsx
+++ b/SEGUIMIENTO MOVILES.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Documentos\PASCUAL\MOVILES_PASCUAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82514543-E9F6-4511-8BC4-AABECF5A5DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="SEGUIMIENTO" sheetId="2" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>ApellidoDeEstudiante</t>
   </si>
@@ -136,22 +135,19 @@
     <t>5.0</t>
   </si>
   <si>
-    <t>TALLER 2</t>
-  </si>
-  <si>
-    <t>TALLER 3</t>
-  </si>
-  <si>
     <t>OROS</t>
   </si>
   <si>
-    <t>4.0</t>
+    <t>TALLER 2 AREA</t>
+  </si>
+  <si>
+    <t>TALLER 3 AREA GUARDANDO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,16 +196,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G12" totalsRowShown="0">
-  <autoFilter ref="A1:G12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G12" totalsRowShown="0">
+  <autoFilter ref="A1:G12"/>
   <tableColumns count="7">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ApellidoDeEstudiante"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="NombreDeEstudiante"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="EmailInstitucional"/>
-    <tableColumn id="1" xr3:uid="{43969E9E-1E4E-4867-A67D-AEA48AD8D9D6}" name="TALLER 1"/>
-    <tableColumn id="2" xr3:uid="{B6609D3E-CD0A-47FD-BBDE-06238E450BB0}" name="TALLER 2"/>
-    <tableColumn id="3" xr3:uid="{159DF0FF-F64B-4640-9E73-FCA2422A489D}" name="TALLER 3"/>
-    <tableColumn id="7" xr3:uid="{4507A4E4-0B9A-4B43-85F3-06ECD018D875}" name="OROS"/>
+    <tableColumn id="4" name="ApellidoDeEstudiante"/>
+    <tableColumn id="5" name="NombreDeEstudiante"/>
+    <tableColumn id="6" name="EmailInstitucional"/>
+    <tableColumn id="1" name="TALLER 1"/>
+    <tableColumn id="2" name="TALLER 2 AREA"/>
+    <tableColumn id="3" name="TALLER 3 AREA GUARDANDO"/>
+    <tableColumn id="7" name="OROS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -499,12 +495,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,13 +524,13 @@
         <v>36</v>
       </c>
       <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -640,8 +636,14 @@
       <c r="D8" t="s">
         <v>37</v>
       </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
       <c r="G8">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -657,6 +659,12 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
       <c r="G9">
         <v>95</v>
       </c>
@@ -671,6 +679,12 @@
       <c r="C10" t="s">
         <v>29</v>
       </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -682,6 +696,15 @@
       <c r="C11" t="s">
         <v>32</v>
       </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -693,8 +716,17 @@
       <c r="C12" t="s">
         <v>35</v>
       </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/SEGUIMIENTO MOVILES.xlsx
+++ b/SEGUIMIENTO MOVILES.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>ApellidoDeEstudiante</t>
   </si>
@@ -500,7 +500,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,8 +554,17 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
       <c r="G3">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">

--- a/SEGUIMIENTO MOVILES.xlsx
+++ b/SEGUIMIENTO MOVILES.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Documentos\PASCUAL\MOVILES_PASCUAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bf24e59b0a992481/Documentos/PASCUAL/MOVILES_PASCUAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82514543-E9F6-4511-8BC4-AABECF5A5DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3135" windowWidth="20490" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEGUIMIENTO" sheetId="2" r:id="rId1"/>
@@ -504,7 +504,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SEGUIMIENTO MOVILES.xlsx
+++ b/SEGUIMIENTO MOVILES.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82514543-E9F6-4511-8BC4-AABECF5A5DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3135" windowWidth="20490" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEGUIMIENTO" sheetId="2" r:id="rId1"/>
@@ -504,7 +504,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SEGUIMIENTO MOVILES.xlsx
+++ b/SEGUIMIENTO MOVILES.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bf24e59b0a992481/Documentos/PASCUAL/MOVILES_PASCUAL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Documentos\PASCUAL\MOVILES_PASCUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82514543-E9F6-4511-8BC4-AABECF5A5DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F57DF0-9CFF-4443-B8DA-83DC20C6C558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>ApellidoDeEstudiante</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>4.0</t>
+  </si>
+  <si>
+    <t>Oros adicionales</t>
   </si>
 </sst>
 </file>
@@ -200,9 +203,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G12" totalsRowShown="0">
-  <autoFilter ref="A1:G12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H12" totalsRowShown="0">
+  <autoFilter ref="A1:H12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="8">
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ApellidoDeEstudiante"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="NombreDeEstudiante"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="EmailInstitucional"/>
@@ -210,6 +213,7 @@
     <tableColumn id="2" xr3:uid="{B6609D3E-CD0A-47FD-BBDE-06238E450BB0}" name="TALLER 2"/>
     <tableColumn id="3" xr3:uid="{159DF0FF-F64B-4640-9E73-FCA2422A489D}" name="TALLER 3"/>
     <tableColumn id="7" xr3:uid="{4507A4E4-0B9A-4B43-85F3-06ECD018D875}" name="OROS"/>
+    <tableColumn id="8" xr3:uid="{BC182EF8-6E10-4888-A383-454D2B33CF2D}" name="Oros adicionales"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -500,11 +504,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +518,7 @@
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,8 +540,11 @@
       <c r="G1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -548,7 +555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -562,7 +569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -581,8 +588,11 @@
       <c r="G4">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -596,7 +606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -615,8 +625,11 @@
       <c r="G6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -627,7 +640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -644,7 +657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -661,7 +674,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -672,7 +685,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -682,8 +695,11 @@
       <c r="C11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
